--- a/assets/excel/categories.xlsx
+++ b/assets/excel/categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asad/Documents/Backup/website/assets/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF1E388-8EA3-D84D-B60B-DAFEAEEDE643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D083EE88-D400-B748-8516-F8DDEE5AC86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{63A2090F-51D9-F742-9E0B-1B30BEAEF21A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
   <si>
     <t>style</t>
   </si>
@@ -53,112 +53,16 @@
     <t>image</t>
   </si>
   <si>
-    <t>6905.LA</t>
-  </si>
-  <si>
-    <t>Mens Leather Jacket</t>
-  </si>
-  <si>
-    <t>Mens Premium Leather Jacket</t>
-  </si>
-  <si>
-    <t>assets/images/6905-LA-Front.webp</t>
-  </si>
-  <si>
-    <t>Mens Leather Vest</t>
-  </si>
-  <si>
-    <t>Mens Premium Leather Vest</t>
-  </si>
-  <si>
-    <t>assets/images/6655-00-Front.webp</t>
-  </si>
-  <si>
-    <t>Mens Leather Chaps</t>
-  </si>
-  <si>
-    <t>assets/images/720-00.webp</t>
-  </si>
-  <si>
-    <t>Mens Premium Leather Chaps</t>
-  </si>
-  <si>
-    <t>TW205.20</t>
-  </si>
-  <si>
-    <t>Mens Flannel Shirt</t>
-  </si>
-  <si>
-    <t>assets/images/TW205-20-Front.webp</t>
-  </si>
-  <si>
-    <t>Mens Gray Flannel Shirt</t>
-  </si>
-  <si>
-    <t>Mens Hoodie</t>
-  </si>
-  <si>
-    <t>Mens Skull Hoodie Sweatshirt</t>
-  </si>
-  <si>
-    <t>assets/images/8000-00-Front.webp</t>
-  </si>
-  <si>
-    <t>2151.PL</t>
-  </si>
-  <si>
-    <t>Ladies Clip on Bag</t>
-  </si>
-  <si>
-    <t>assets/images/2151-PL-1.webp</t>
-  </si>
-  <si>
-    <t>Ladies Premium Clip on Bag</t>
-  </si>
-  <si>
-    <t>Mens Full Finger Gloves</t>
-  </si>
-  <si>
-    <t>assets/images/8324.00-1.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mens Full Finger Leather Gloves </t>
-  </si>
-  <si>
-    <t>Biker Chain Wallets</t>
-  </si>
-  <si>
-    <t>assets/images/9083-00-1.webp</t>
-  </si>
-  <si>
-    <t>7 x 3 Biker Chain Wallets</t>
-  </si>
-  <si>
-    <t>5755.AS</t>
-  </si>
-  <si>
-    <t>Accessories</t>
-  </si>
-  <si>
-    <t>4 inch Vest Extenders</t>
-  </si>
-  <si>
-    <t>assets/images/5755-AS.webp</t>
-  </si>
-  <si>
-    <t>6655-00</t>
-  </si>
-  <si>
-    <t>720-00</t>
-  </si>
-  <si>
-    <t>8000-00</t>
-  </si>
-  <si>
-    <t>8324-00</t>
-  </si>
-  <si>
-    <t>9083-00</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Description </t>
+  </si>
+  <si>
+    <t>assets/images/image.webp</t>
   </si>
 </sst>
 </file>
@@ -544,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D9F191-DF66-5B48-9A4C-40566E4CA7E4}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,13 +481,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>249.99</v>
+        <v>49.99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -594,138 +498,138 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>129.99</v>
+        <v>49.99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>109.99</v>
+        <v>49.99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>49.99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>49.99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>24.99</v>
+        <v>49.99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>9.99</v>
+        <v>49.99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/categories.xlsx
+++ b/assets/excel/categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asad/Documents/Backup/website/assets/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D083EE88-D400-B748-8516-F8DDEE5AC86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCB69D9-78AA-6448-B6A6-F19FAF2CB99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{63A2090F-51D9-F742-9E0B-1B30BEAEF21A}"/>
   </bookViews>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D9F191-DF66-5B48-9A4C-40566E4CA7E4}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assets/excel/categories.xlsx
+++ b/assets/excel/categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asad/Documents/Backup/website/assets/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCB69D9-78AA-6448-B6A6-F19FAF2CB99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8A6709-3F4C-E04F-919F-5F0E509D98CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16000" xr2:uid="{63A2090F-51D9-F742-9E0B-1B30BEAEF21A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="11">
   <si>
     <t>style</t>
   </si>
@@ -53,16 +53,22 @@
     <t>image</t>
   </si>
   <si>
+    <t xml:space="preserve">Item Description </t>
+  </si>
+  <si>
+    <t>assets/images/image.webp</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item Description </t>
-  </si>
-  <si>
-    <t>assets/images/image.webp</t>
+    <t>sizes</t>
+  </si>
+  <si>
+    <t>S,M,L,XL,2XL</t>
   </si>
 </sst>
 </file>
@@ -72,10 +78,16 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -446,23 +458,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D9F191-DF66-5B48-9A4C-40566E4CA7E4}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="21.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -473,166 +485,197 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>49.99</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <v>49.99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>49.99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>49.99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>49.99</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>49.99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>49.99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <v>49.99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
         <v>49.99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>